--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262060.867235374</v>
+        <v>2371202.120795498</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9452147.913162403</v>
+        <v>9474594.788644426</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>155.2277650042716</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>71.68477676673068</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>104.9715426764055</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>10.80058520994468</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273.947839140931</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>253.3557045524933</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>85.4117110184515</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>234.8455103840634</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.5596938531985</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>27.48997621908773</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>18.80870111681744</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893127</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.43007309478924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4589496224476</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9192109362943</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>34.00490843294678</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,16 +2289,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>154.0489950679129</v>
       </c>
       <c r="T28" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>106.529063293451</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>19.72264368952156</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>1.255571502167196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.22824985092586</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>175.5375697851129</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>78.6882778203391</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>30.85302310518022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.574522601424</v>
+        <v>908.6300438698361</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.612005661012</v>
+        <v>539.6675269294244</v>
       </c>
       <c r="D2" t="n">
-        <v>950.3463070542618</v>
+        <v>539.6675269294244</v>
       </c>
       <c r="E2" t="n">
-        <v>950.3463070542618</v>
+        <v>382.8718047028874</v>
       </c>
       <c r="F2" t="n">
-        <v>539.3604022646543</v>
+        <v>375.9263039536839</v>
       </c>
       <c r="G2" t="n">
-        <v>123.6556519889432</v>
+        <v>363.5144466859626</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>525.3175166702063</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1166.3407262901</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1471.815832525684</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>2064.174362665546</v>
+        <v>908.6300438698361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>482.0217860833943</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1123.044995703288</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1408.37886613662</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.8317166121182</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.8317166121182</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>701.9333748549657</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>447.2488866490788</v>
       </c>
       <c r="W4" t="n">
-        <v>559.5429772123796</v>
+        <v>157.8317166121182</v>
       </c>
       <c r="X4" t="n">
-        <v>559.5429772123796</v>
+        <v>157.8317166121182</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.7503980688494</v>
+        <v>157.8317166121182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.273607737845</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974333</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.1279287449</v>
+        <v>1199.872925144793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.988596769088</v>
+        <v>943.9580720614667</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429757</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744474</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.1023241168326</v>
+        <v>583.7284333743775</v>
       </c>
       <c r="C7" t="n">
-        <v>350.1023241168326</v>
+        <v>583.7284333743775</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>433.6117939620417</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>433.6117939620417</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>286.7218464641313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>286.7218464641313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>138.0743108970132</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U7" t="n">
-        <v>1296.64502633345</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.960538127563</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="W7" t="n">
-        <v>752.5433680906025</v>
+        <v>1032.510563415925</v>
       </c>
       <c r="X7" t="n">
-        <v>752.5433680906025</v>
+        <v>804.5210125179076</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.7507889470724</v>
+        <v>583.7284333743775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1059.365742829028</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1059.365742829028</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>673.5774902307835</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.225113394433</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.225113394433</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.64588533668</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.582997993109</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1977.582997993109</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1977.582997993109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1587.443666017298</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1965.620148003312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>851.1614916330442</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>682.2253087051373</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>1032.809956463284</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5363,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1817.401535437329</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1732.088140170817</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.40365196493</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.986481927969</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9969310299521</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.2043518864219</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2224.312334309519</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>2004.71086933246</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,7 +6463,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>2910.517678583983</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>2760.401039171647</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>2612.487945589254</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2359.995517520015</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9926444679666</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>486.0795508855734</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
@@ -7202,10 +7204,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532264</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2393.197174639931</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2210.342340294836</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1990.740875317776</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U40" t="n">
-        <v>1701.665648661974</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.665648661974</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.248478625014</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.258927726996</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4663485834661</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1354.218256739386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7639,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.6357307816187</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>793.6995478537118</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>643.582908441376</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>495.6698148589829</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>348.7798673610725</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.284195611858</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>11.85491297721353</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30.36925650589495</v>
+        <v>74.63882667710772</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>256.7871481632757</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>232.4400048971979</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>38.72167599501799</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7255247667966</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>43.26526345294982</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>26.97729093373172</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>38.8919847294802</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>161.303642312123</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.1654765207641</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.2568112467073</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.14699685919582</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>41.86788054217541</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>207.8347205162519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831879.0003003583</v>
+        <v>854691.4434515941</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>831879.0003003583</v>
+        <v>831685.1777557405</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>831879.0003003583</v>
+        <v>831685.1777557405</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812636.095375117</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675047</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>500888.8677457502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26436,22 +26438,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-722613.8187340572</v>
+        <v>-573032.5221893345</v>
       </c>
       <c r="C6" t="n">
-        <v>392137.9648418623</v>
+        <v>220469.1235215591</v>
       </c>
       <c r="D6" t="n">
-        <v>392137.9648418626</v>
+        <v>393233.4833114546</v>
       </c>
       <c r="E6" t="n">
-        <v>-9535.502212643827</v>
+        <v>-2938.928333848206</v>
       </c>
       <c r="F6" t="n">
+        <v>497949.9394119019</v>
+      </c>
+      <c r="G6" t="n">
+        <v>497949.9394119018</v>
+      </c>
+      <c r="H6" t="n">
         <v>497949.9394119022</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>497949.9394119023</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>328535.9225858544</v>
+      </c>
+      <c r="K6" t="n">
         <v>497949.9394119023</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>497949.9394119022</v>
       </c>
-      <c r="J6" t="n">
-        <v>330344.7616019194</v>
-      </c>
-      <c r="K6" t="n">
-        <v>497949.9394119021</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>367065.4825076673</v>
+      </c>
+      <c r="N6" t="n">
         <v>497949.939411902</v>
       </c>
-      <c r="M6" t="n">
-        <v>365342.6456829758</v>
-      </c>
-      <c r="N6" t="n">
-        <v>497949.9394119023</v>
-      </c>
       <c r="O6" t="n">
-        <v>497949.939411902</v>
+        <v>497949.9394119024</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119021</v>
+        <v>497949.9394119019</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>428.2691096918287</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>226.7026050679902</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>229.3337757956747</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>43.64393034180685</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>275.7224131266463</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.7860025225496</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>132.8822341035603</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>19.07894849454961</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.38164373713724</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>202.3163518885129</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>95.44543255536527</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>129.8067719013949</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188788</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>453.7122424932259</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32081,10 +32083,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,16 +32317,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>697.06562727909</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>160.6314956130963</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>289.750084004115</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>328.0496171437451</v>
+        <v>286.3467794577437</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>595.0989468658325</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676411</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>484.4366997103483</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>322.3705304098925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>245.9177694853266</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>554.9315933570717</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36829,10 +36831,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2371202.120795498</v>
+        <v>2367045.934487533</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>155.2277650042716</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>66.07249805057555</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -718,16 +718,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9715426764055</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>104.7943215106285</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>260.6967738661594</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.3557045524933</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.2184468795535</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>85.4117110184515</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.48997621908773</v>
+        <v>62.39747685266946</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.80870111681744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>61.81577888464436</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>107.7122866515512</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>18.16423677622371</v>
+        <v>2.445727774094267</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>70.04554881124335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>34.00490843294678</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>45.66054613217651</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>154.0489950679129</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>106.529063293451</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>139.5271979141359</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>19.72264368952156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>90.14863908058098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>175.5375697851129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>79.70119244397701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>908.6300438698361</v>
+        <v>1737.734193519881</v>
       </c>
       <c r="C2" t="n">
-        <v>539.6675269294244</v>
+        <v>1368.77167657947</v>
       </c>
       <c r="D2" t="n">
-        <v>539.6675269294244</v>
+        <v>1010.505977972719</v>
       </c>
       <c r="E2" t="n">
-        <v>382.8718047028874</v>
+        <v>624.7177253744749</v>
       </c>
       <c r="F2" t="n">
-        <v>375.9263039536839</v>
+        <v>213.7318205848673</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859626</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702063</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.3407262901</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.815832525684</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689757</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068627</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.769375845648</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="Y2" t="n">
-        <v>908.6300438698361</v>
+        <v>2124.334033584003</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0217860833943</v>
+        <v>1000.641447200244</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703288</v>
+        <v>1264.580978695732</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.37886613662</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972039</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8317166121182</v>
+        <v>220.7360382507266</v>
       </c>
       <c r="C4" t="n">
-        <v>157.8317166121182</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>1205.349459350387</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628636</v>
+        <v>980.938300125825</v>
       </c>
       <c r="U4" t="n">
-        <v>701.9333748549657</v>
+        <v>691.801673117927</v>
       </c>
       <c r="V4" t="n">
-        <v>447.2488866490788</v>
+        <v>691.801673117927</v>
       </c>
       <c r="W4" t="n">
-        <v>157.8317166121182</v>
+        <v>402.3845030809663</v>
       </c>
       <c r="X4" t="n">
-        <v>157.8317166121182</v>
+        <v>402.3845030809663</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.8317166121182</v>
+        <v>402.3845030809663</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.9580720614667</v>
+        <v>1439.787835839972</v>
       </c>
       <c r="C5" t="n">
-        <v>943.9580720614667</v>
+        <v>1070.825318899561</v>
       </c>
       <c r="D5" t="n">
-        <v>943.9580720614667</v>
+        <v>712.5596202928102</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>326.771367694566</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718591</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1573.338683405873</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>1199.872925144793</v>
+        <v>2216.527007879906</v>
       </c>
       <c r="Y5" t="n">
-        <v>943.9580720614667</v>
+        <v>1826.387675904094</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.946747225829</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421438</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344694</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.587795454363</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583.7284333743775</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="C7" t="n">
-        <v>583.7284333743775</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="D7" t="n">
-        <v>433.6117939620417</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="E7" t="n">
-        <v>433.6117939620417</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="F7" t="n">
-        <v>286.7218464641313</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="G7" t="n">
-        <v>286.7218464641313</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>138.0743108970132</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1321.927733452886</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="V7" t="n">
-        <v>1321.927733452886</v>
+        <v>1103.181404958389</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.510563415925</v>
+        <v>813.7642349214286</v>
       </c>
       <c r="X7" t="n">
-        <v>804.5210125179076</v>
+        <v>585.7746840234113</v>
       </c>
       <c r="Y7" t="n">
-        <v>583.7284333743775</v>
+        <v>364.9821048798811</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>439.3493107718989</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718912</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
         <v>51.79985532281972</v>
@@ -4804,13 +4804,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477397</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.225113394433</v>
+        <v>2526.96501174435</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.225113394433</v>
+        <v>2526.96501174435</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.64588533668</v>
+        <v>2273.385783686597</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.582997993109</v>
+        <v>1942.322896343026</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.582997993109</v>
+        <v>1589.554241072912</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.582997993109</v>
+        <v>1216.088482811832</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.443666017298</v>
+        <v>825.9491508360206</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>598.803157343134</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962038</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.69146728778</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1965.620148003312</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>851.1614916330442</v>
+        <v>727.1359052451296</v>
       </c>
       <c r="C10" t="n">
-        <v>682.2253087051373</v>
+        <v>727.1359052451296</v>
       </c>
       <c r="D10" t="n">
-        <v>663.226620708352</v>
+        <v>577.0192658327938</v>
       </c>
       <c r="E10" t="n">
-        <v>515.3135271259589</v>
+        <v>429.1061722504007</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>282.2162247524903</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>114.2400360143797</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>114.2400360143797</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463284</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>1032.809956463284</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="W10" t="n">
-        <v>1032.809956463284</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.809956463284</v>
+        <v>1129.576949218899</v>
       </c>
       <c r="Y10" t="n">
-        <v>1032.809956463284</v>
+        <v>908.7843700753693</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900017</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>785.3114619327538</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>635.194822520418</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>487.2817289380249</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>986.1256051221279</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>817.189422194221</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>667.0727827818853</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>519.1596891994922</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.556199993915</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.566649095898</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.774069952368</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.312334309519</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2004.71086933246</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.635642676658</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3079.453861511889</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2910.517678583983</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2760.401039171647</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2612.487945589254</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383676</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.894905485659</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y31" t="n">
-        <v>3261.102326342129</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2359.995517520015</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2140.394052542956</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1851.318825887154</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,52 +6922,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7101,46 +7101,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7153,61 +7153,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7362,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2086.797572684546</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.722346028744</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>862.3241387471426</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>712.2074993348068</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942355</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.85491297721353</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>74.63882667710772</v>
+        <v>207.9407978764908</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>256.7871481632757</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.763924374041</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>232.4400048971979</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38.72167599501799</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>127.2568112467075</v>
+        <v>142.975320248837</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>100.7734165143927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>26.97729093373172</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>38.8919847294802</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>146.9958004224551</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>161.303642312123</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.86788054217541</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>66.73277020259216</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854691.4434515941</v>
+        <v>854691.4434515937</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>831685.1777557405</v>
+        <v>831685.1777557406</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>831685.1777557405</v>
+        <v>831685.1777557406</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.095375117</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.949767504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457502</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="N4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573032.5221893345</v>
+        <v>-573032.5221893367</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215591</v>
+        <v>220469.1235215625</v>
       </c>
       <c r="D6" t="n">
-        <v>393233.4833114546</v>
+        <v>393233.4833114549</v>
       </c>
       <c r="E6" t="n">
-        <v>-2938.928333848206</v>
+        <v>-3286.307588205444</v>
       </c>
       <c r="F6" t="n">
-        <v>497949.9394119019</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="G6" t="n">
-        <v>497949.9394119018</v>
+        <v>497602.560157545</v>
       </c>
       <c r="H6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575453</v>
       </c>
       <c r="I6" t="n">
-        <v>497949.9394119023</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="J6" t="n">
-        <v>328535.9225858544</v>
+        <v>328188.5433314973</v>
       </c>
       <c r="K6" t="n">
-        <v>497949.9394119023</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="L6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="M6" t="n">
-        <v>367065.4825076673</v>
+        <v>366718.1032533101</v>
       </c>
       <c r="N6" t="n">
-        <v>497949.939411902</v>
+        <v>497602.5601575449</v>
       </c>
       <c r="O6" t="n">
-        <v>497949.9394119024</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119019</v>
+        <v>497602.5601575452</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918287</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>226.7026050679902</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>346.2152406444686</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.64393034180685</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>95.65320286067293</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.179271875552</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.8822341035603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>36.07797997117603</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>19.07894849454961</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44543255536527</v>
+        <v>60.53793192178359</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>129.8067719013949</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>42.67488062835679</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.430228579335942e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>453.7122424932259</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6713445157999</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32788,28 +32788,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>289.750084004115</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>286.3467794577437</v>
+        <v>419.6487506571282</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>595.0989468658325</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.310883367185</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>484.4366997103483</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>322.3705304098925</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>122.3296324324666</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36436,28 +36436,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2367045.934487533</v>
+        <v>2368806.464790318</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>66.07249805057555</v>
+        <v>354.7913781157576</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>139.0885401771911</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.7943215106285</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.6967738661594</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>220.240997660758</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>130.2184468795535</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>33.93089591116124</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>327.055405316772</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.39747685266946</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.81577888464436</v>
+        <v>60.86538463674615</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.4744566894672</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>2.445727774094267</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>139.5271979141359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833095</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892427719</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.5115415340516</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1737.734193519881</v>
+        <v>1256.366504928138</v>
       </c>
       <c r="C2" t="n">
-        <v>1368.77167657947</v>
+        <v>1256.366504928138</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.505977972719</v>
+        <v>898.1008063213878</v>
       </c>
       <c r="E2" t="n">
-        <v>624.7177253744749</v>
+        <v>512.3125537231435</v>
       </c>
       <c r="F2" t="n">
-        <v>213.7318205848673</v>
+        <v>505.3670529739401</v>
       </c>
       <c r="G2" t="n">
         <v>146.9919235640839</v>
@@ -4333,49 +4333,49 @@
         <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1974.769584930351</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2249.885804246986</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2450.190131536089</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.334033584003</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.334033584003</v>
+        <v>1629.832263189218</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.334033584003</v>
+        <v>1256.366504928138</v>
       </c>
       <c r="Y2" t="n">
-        <v>2124.334033584003</v>
+        <v>1256.366504928138</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>1000.641447200244</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.580978695732</v>
+        <v>1438.323136656821</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.7360382507266</v>
+        <v>1090.409730217593</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>921.4735472896859</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>771.3569078773502</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>623.4438142949571</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>476.5538667970467</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>308.2320943901706</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1205.349459350387</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>980.938300125825</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>691.801673117927</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>691.801673117927</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>402.3845030809663</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>402.3845030809663</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="Y4" t="n">
-        <v>402.3845030809663</v>
+        <v>1090.409730217593</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.787835839972</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.825318899561</v>
+        <v>1494.795835669379</v>
       </c>
       <c r="D5" t="n">
-        <v>712.5596202928102</v>
+        <v>1136.530137062629</v>
       </c>
       <c r="E5" t="n">
-        <v>326.771367694566</v>
+        <v>750.7418844643846</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>339.7559796747771</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.387675904094</v>
+        <v>1863.758352609791</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1731.417920441367</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2066.346601156898</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2315.823329021917</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3336400496414</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C7" t="n">
-        <v>183.3336400496414</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D7" t="n">
-        <v>183.3336400496414</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.3336400496414</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F7" t="n">
-        <v>183.3336400496414</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>234.7210231234341</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>86.07348755631591</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4758,19 +4758,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164276</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.181404958389</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>813.7642349214286</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X7" t="n">
-        <v>585.7746840234113</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.9821048798811</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>439.3493107718989</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="C8" t="n">
-        <v>70.38679383148718</v>
+        <v>1537.198706586889</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148718</v>
+        <v>1178.933007980138</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>793.1447553818939</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>382.1588505922863</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.96501174435</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.96501174435</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2273.385783686597</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>1942.322896343026</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.554241072912</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X8" t="n">
-        <v>1216.088482811832</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.9491508360206</v>
+        <v>1906.1612235273</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>598.803157343134</v>
+        <v>426.7768722128334</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594485</v>
+        <v>724.088821329148</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821473</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4941,28 +4941,28 @@
         <v>727.1359052451296</v>
       </c>
       <c r="C10" t="n">
-        <v>727.1359052451296</v>
+        <v>558.1997223172227</v>
       </c>
       <c r="D10" t="n">
-        <v>577.0192658327938</v>
+        <v>408.083082904887</v>
       </c>
       <c r="E10" t="n">
-        <v>429.1061722504007</v>
+        <v>260.1699893224938</v>
       </c>
       <c r="F10" t="n">
-        <v>282.2162247524903</v>
+        <v>113.2800418245835</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2400360143797</v>
+        <v>113.2800418245835</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2400360143797</v>
+        <v>113.2800418245835</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121971</v>
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606607</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327538</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>635.194822520418</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380249</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5430,10 +5430,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6882,7 +6882,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400639</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121571</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998213</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998213</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998213</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270397</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038267</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797698</v>
+        <v>826.140538179767</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138338</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703037</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.5813165460164</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C46" t="n">
-        <v>385.6451336181095</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>37.93451847054686</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>207.9407978764908</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>277.0628188392357</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.6961128228677</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>173.763924374041</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.3575234924700794</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.975320248837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>61.4007578696825</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.5498640939379</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>139.4693302300325</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.32043864788571</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.095375117</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.772604273830323e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.772604273830323e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695015</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695023</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26450,13 +26450,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531694944</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531694967</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26472,10 +26472,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-573032.5221893367</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215625</v>
+        <v>220469.1235215624</v>
       </c>
       <c r="D6" t="n">
-        <v>393233.4833114549</v>
+        <v>393233.4833114551</v>
       </c>
       <c r="E6" t="n">
-        <v>-3286.307588205444</v>
+        <v>-2973.666259284641</v>
       </c>
       <c r="F6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="G6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864661</v>
       </c>
       <c r="H6" t="n">
-        <v>497602.5601575453</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="I6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="J6" t="n">
-        <v>328188.5433314973</v>
+        <v>328501.1846604183</v>
       </c>
       <c r="K6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="L6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864668</v>
       </c>
       <c r="M6" t="n">
-        <v>366718.1032533101</v>
+        <v>367030.7445822312</v>
       </c>
       <c r="N6" t="n">
-        <v>497602.5601575449</v>
+        <v>497915.2014864662</v>
       </c>
       <c r="O6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864662</v>
       </c>
       <c r="P6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864661</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.465755342287904e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.465755342287904e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.465755342287904e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.465755342287904e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>346.2152406444686</v>
+        <v>57.49636057928655</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>11.11434748672937</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>95.65320286067293</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.179271875552</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>191.2840257211113</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36.07797997117603</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>70.55976360183989</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>84.46961806509739</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.53793192178359</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>42.67488062835679</v>
+        <v>43.625274876255</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-4.442389490533438e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30170,10 +30170,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-6.259880631695728e-14</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.430228579335942e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.689344965865156e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.804778548830654e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>593.5422977113961</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,28 +34701,28 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>141.2147824291883</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>419.6487506571282</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>543.6684062084153</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
         <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35026,7 +35026,7 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35035,10 +35035,10 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>248.72579905263</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>362.310883367185</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174895</v>
@@ -35269,7 +35269,7 @@
         <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>425.7606191871912</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656112</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35664,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>462.2005856280628</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096272</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
